--- a/imageCreationExcel/back/darkyobi/darkyobi_19.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_19.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2263034999615384</v>
+        <v>16.38444931879698</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7207421719458643</v>
+        <v>0.8194203452292594</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.864351661961524</v>
+        <v>0.8267105193300845</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_2_sharpness0.23_gamma0.72_brightness6.9.jpg</t>
+          <t>1_1_brightness16.0_contrast0.82_gamma0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.184249108321835</v>
+        <v>27.63487880602563</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.604686080690723</v>
+        <v>0.9681127906966757</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15.38507297238283</v>
+        <v>0.6531985731701565</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_S_contrast1.2_sharpness0.6_equalization15.0.jpg</t>
+          <t>2_P_brightness28.0_contrast0.97_sharpness0.65.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8552894509577267</v>
+        <v>0.8978092134710449</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8034916303063261</v>
+        <v>1.056225004063222</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5634973748472839</v>
+        <v>9.701255547032822</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_B_contrast0.86_sharpness0.8_gamma0.56.jpg</t>
+          <t>3_1_sharpness0.9_contrast1.1_equalization9.7.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9825668499642408</v>
+        <v>16.54991258546004</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.117255591732186</v>
+        <v>0.8997233069342523</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.68562364651534</v>
+        <v>0.9759714496526508</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_3_gamma0.98_contrast1.1_equalization13.0.jpg</t>
+          <t>4_E_brightness17.0_sharpness0.9_gamma0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -654,24 +654,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4854522614092833</v>
+        <v>0.9690346218095256</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.022079046172101</v>
+        <v>0.8576532742921031</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12.80518514421189</v>
+        <v>8.001162398033129</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_B_sharpness0.49_gamma1.0_equalization13.0.jpg</t>
+          <t>5_P_gamma0.97_contrast0.86_equalization8.0.jpg</t>
         </is>
       </c>
     </row>
@@ -701,19 +701,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5929143418352321</v>
+        <v>1.146934611591828</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8588218945779603</v>
+        <v>0.8076188818156309</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10.56888960326147</v>
+        <v>26.76445055190079</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_8_gamma0.59_contrast0.86_equalization11.0.jpg</t>
+          <t>6_8_contrast1.1_gamma0.81_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5387437255227507</v>
+        <v>14.94826321139254</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.877929968982208</v>
+        <v>0.2646015797010935</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>27.25908369325139</v>
+        <v>0.8068010594459532</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_8_sharpness0.54_gamma0.88_equalization27.0.jpg</t>
+          <t>7_I_brightness15.0_sharpness0.26_gamma0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -785,19 +785,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.074330795125121</v>
+        <v>0.9371317380473945</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.2899230978324291</v>
+        <v>1.08525881554267</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11.67700583403697</v>
+        <v>17.02686611631702</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_B_gamma1.1_sharpness0.29_equalization12.0.jpg</t>
+          <t>8_B_contrast0.94_gamma1.1_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9593441941800214</v>
+        <v>0.1477360479824478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.4051255000505862</v>
+        <v>11.13399564439195</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16.99106549803857</v>
+        <v>1.026479411388732</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_I_gamma0.96_sharpness0.41_equalization17.0.jpg</t>
+          <t>9_2_sharpness0.15_brightness11.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -864,24 +864,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9286093387306127</v>
+        <v>0.5695064931433056</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9452362692400569</v>
+        <v>1.133383108416149</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>19.35921630461928</v>
+        <v>17.71663341711991</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_contrast0.93_gamma0.95_equalization19.0.jpg</t>
+          <t>10_S_gamma0.57_contrast1.1_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9789097805884791</v>
+        <v>0.5995772551011748</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8369510687286053</v>
+        <v>0.3194126910559806</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>29.1863027878063</v>
+        <v>0.8262710056906035</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_9_contrast0.98_gamma0.84_equalization29.0.jpg</t>
+          <t>11_P_gamma0.6_sharpness0.32_contrast0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8533761988883615</v>
+        <v>0.5394514929999444</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,22 +965,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5295769959030214</v>
+        <v>0.8457570075962713</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>20.72750490499127</v>
+        <v>13.37890761481025</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_9_contrast0.85_sharpness0.53_equalization21.0.jpg</t>
+          <t>12_S_gamma0.54_sharpness0.85_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -990,24 +990,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6206876674976977</v>
+        <v>0.1537512413421933</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.004330248731186</v>
+        <v>0.8060819361698491</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>31.24539944719148</v>
+        <v>10.48226697028826</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_I_gamma0.62_contrast1.0_equalization31.0.jpg</t>
+          <t>13_2_sharpness0.15_gamma0.81_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,30 +1041,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8473312544605629</v>
+        <v>0.9526245667251305</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.7887445640326252</v>
+        <v>23.44663772663617</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>25.22437861166203</v>
+        <v>0.687539645501085</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_8_contrast0.85_gamma0.79_equalization25.0.jpg</t>
+          <t>14_B_contrast0.95_brightness23.0_sharpness0.69.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7333948223957669</v>
+        <v>15.53310754339111</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17.94749840188319</v>
+        <v>0.628067892120252</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8342104070794956</v>
+        <v>0.7237242698860754</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_E_gamma0.73_brightness18.0_contrast0.83.jpg</t>
+          <t>15_1_brightness16.0_gamma0.63_sharpness0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,24 +1116,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8240500812540592</v>
+        <v>1.08988958090845</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.008208671190857</v>
+        <v>0.943059997303113</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>28.28403701346596</v>
+        <v>12.65009234535135</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_B_contrast0.82_gamma1.0_equalization28.0.jpg</t>
+          <t>16_1_gamma1.1_contrast0.94_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,30 +1167,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5112040252087465</v>
+        <v>0.6341012378624784</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.05281100090163615</v>
+        <v>1.041543885641975</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>28.45416208537247</v>
+        <v>17.9273976599168</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_8_gamma0.51_sharpness0.053_brightness28.0.jpg</t>
+          <t>17_9_gamma0.63_contrast1.0_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7867936319851414</v>
+        <v>1.135840915003093</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.012849394666198</v>
+        <v>0.6905263899295576</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.131135174435388</v>
+        <v>6.799937164421745</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_2_sharpness0.79_gamma1.0_contrast1.1.jpg</t>
+          <t>18_7_contrast1.1_gamma0.69_equalization6.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23.6114653080156</v>
+        <v>1.06268978058705</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5162849337239487</v>
+        <v>0.768233870115659</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.052085431127182</v>
+        <v>23.81869687214104</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_brightness24.0_sharpness0.52_contrast1.1.jpg</t>
+          <t>19_B_contrast1.1_gamma0.77_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9296417786428485</v>
+        <v>1.103539959411156</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.03985711709880413</v>
+        <v>6.838758272547682</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>16.32585464515701</v>
+        <v>0.4996007019624081</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_8_contrast0.93_sharpness0.04_equalization16.0.jpg</t>
+          <t>20_B_contrast1.1_brightness6.8_sharpness0.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0187622369643724</v>
+        <v>0.6229034984217888</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9532032698248697</v>
+        <v>0.8740422394352292</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>18.90553020620376</v>
+        <v>10.68079796730941</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_8_sharpness0.019_contrast0.95_brightness19.0.jpg</t>
+          <t>21_0_sharpness0.62_contrast0.87_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9243004708457601</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1099211545557478</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0.1014716803809157</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.8899084924347692</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H23" t="n">
-        <v>0.9722493578225708</v>
+        <v>27.22637085587561</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_P_brightness0.1_sharpness0.89_gamma0.97.jpg</t>
+          <t>22_B_gamma0.92_sharpness0.11_brightness27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,30 +1419,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5681353650333273</v>
+        <v>0.1120664618993763</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7341674324056757</v>
+        <v>0.8126039096576581</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.9237332712449261</v>
+        <v>19.92097042575234</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_E_sharpness0.57_brightness0.73_gamma0.92.jpg</t>
+          <t>23_7_sharpness0.11_gamma0.81_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5781638795251632</v>
+        <v>1.194321390344247</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25.08775959900653</v>
+        <v>0.8276370780301152</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.8402260515968596</v>
+        <v>0.9125853794166734</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_sharpness0.58_brightness25.0_contrast0.84.jpg</t>
+          <t>24_I_contrast1.2_gamma0.83_sharpness0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.128728461534107</v>
+        <v>0.009887694725199903</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9253759516469426</v>
+        <v>0.675931871628384</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6.056182805156007</v>
+        <v>19.64157046181454</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_3_contrast1.1_sharpness0.93_equalization6.1.jpg</t>
+          <t>25_7_sharpness0.0099_gamma0.68_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.822848466836914</v>
+        <v>0.6790418488864507</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9850206188444858</v>
+        <v>0.5659149864314094</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.27695566985118</v>
+        <v>29.67344023073605</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_contrast0.82_gamma0.99_equalization18.0.jpg</t>
+          <t>26_8_sharpness0.68_gamma0.57_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.109925231928462</v>
+        <v>0.5757260048017157</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>23.77814150011198</v>
+        <v>0.5879699366270531</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.5827689070294695</v>
+        <v>24.48511382674577</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_contrast1.1_brightness24.0_gamma0.58.jpg</t>
+          <t>27_T_gamma0.58_sharpness0.59_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.077172322697942</v>
+        <v>0.04315257520633731</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>14.40273864866712</v>
+        <v>0.8245783723518146</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8943668604872357</v>
+        <v>11.57889138314401</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_2_contrast1.1_brightness14.0_gamma0.89.jpg</t>
+          <t>28_7_sharpness0.043_contrast0.82_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.032263092213422</v>
+        <v>3.204876110050384</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6045665292951359</v>
+        <v>1.040402912013586</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.9779250382727083</v>
+        <v>1.143659532141636</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_S_gamma1.0_sharpness0.6_contrast0.98.jpg</t>
+          <t>29_P_brightness3.2_gamma1.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8952444180087594</v>
+        <v>0.4388027078779954</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6330029074415938</v>
+        <v>7.205757301369253</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>13.88263733466743</v>
+        <v>0.8657337183125808</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_3_contrast0.9_sharpness0.63_brightness14.0.jpg</t>
+          <t>30_E_sharpness0.44_brightness7.2_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.3012417738351796</v>
+        <v>1.10088749366848</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9226822087998277</v>
+        <v>0.5522032284170164</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.9018786865764887</v>
+        <v>20.17821022869248</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_8_sharpness0.3_contrast0.92_gamma0.9.jpg</t>
+          <t>31_I_contrast1.1_sharpness0.55_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.059969845333276</v>
+        <v>0.2000091953712597</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>26.08450600864008</v>
+        <v>0.577837079225804</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.6051457421473103</v>
+        <v>26.58902576039518</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_C_contrast1.1_brightness26.0_gamma0.61.jpg</t>
+          <t>32_1_sharpness0.2_gamma0.58_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,24 +1830,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8158650676680219</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>2.026996453587643</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F34" t="n">
-        <v>0.5362621693855115</v>
+        <v>20.36213433725977</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.6747015543695354</v>
+        <v>0.5708035474737477</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_P_brightness2.0_sharpness0.54_gamma0.67.jpg</t>
+          <t>33_2_sharpness0.82_brightness20.0_gamma0.57.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,24 +1872,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.3584366685295565</v>
+        <v>0.9405308878222347</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5483703287529518</v>
+        <v>0.8204642555920789</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>24.29835393160685</v>
+        <v>16.89213030833063</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_E_sharpness0.36_gamma0.55_brightness24.0.jpg</t>
+          <t>34_I_gamma0.94_sharpness0.82_brightness17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22.12317069593469</v>
+        <v>0.5385257571094236</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5869329549064713</v>
+        <v>0.9565947777773725</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.157628882886785</v>
+        <v>0.7233259422792663</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_brightness22.0_sharpness0.59_contrast1.2.jpg</t>
+          <t>35_S_sharpness0.54_contrast0.96_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1.093763514878158</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>7.21342777029194</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F37" t="n">
-        <v>0.9468437914999797</v>
+        <v>0.9494846604384977</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.581678055384206</v>
+        <v>0.9016197440272721</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_7_brightness7.2_contrast0.95_sharpness0.58.jpg</t>
+          <t>36_3_gamma1.1_brightness0.95_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.101109156101761</v>
+        <v>0.9959496443496004</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.7368526814011177</v>
+        <v>14.37977952748079</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7.870069295492447</v>
+        <v>0.8032801291618064</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_8_contrast1.1_sharpness0.74_equalization7.9.jpg</t>
+          <t>37_2_sharpness1.0_brightness14.0_gamma0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -2045,34 +2045,34 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.01758385402939</v>
+        <v>1.158570415710882</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.6029487778403886</v>
+        <v>29.14219272469667</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.010058339279272</v>
+        <v>0.8178317800937894</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_9_gamma1.0_sharpness0.6_contrast1.0.jpg</t>
+          <t>38_9_contrast1.2_brightness29.0_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,24 +2082,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9156259283377396</v>
+        <v>0.0802708283509842</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.3609847617964137</v>
+        <v>0.5057048607481197</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>30.6782434025374</v>
+        <v>4.55716311200152</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_C_gamma0.92_sharpness0.36_equalization31.0.jpg</t>
+          <t>39_B_sharpness0.08_gamma0.51_equalization4.6.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,16 +2124,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8312725081505503</v>
+        <v>1.018672822358702</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>20.66011399307676</v>
+        <v>29.51559008044764</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.4492499186874956</v>
+        <v>0.6464736635645584</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_T_gamma0.83_brightness21.0_sharpness0.45.jpg</t>
+          <t>40_0_contrast1.0_brightness30.0_sharpness0.65.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6384944619040445</v>
+        <v>0.8806388546781334</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.199234045252416</v>
+        <v>1.170494699267795</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.4842519933846667</v>
+        <v>22.75404545531325</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_C_gamma0.64_brightness5.2_sharpness0.48.jpg</t>
+          <t>41_E_sharpness0.88_contrast1.2_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2213,34 +2213,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8906265700210978</v>
+        <v>0.7998211904763861</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.274306147046509</v>
+        <v>1.046402406492492</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.589364985978172</v>
+        <v>0.6269596707163784</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_8_contrast0.89_brightness4.3_sharpness0.59.jpg</t>
+          <t>42_8_sharpness0.8_contrast1.0_gamma0.63.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.2305157220325411</v>
+        <v>12.15109968080153</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.080909969209656</v>
+        <v>0.636396166762197</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>18.22791625980181</v>
+        <v>0.07973583018606056</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_S_sharpness0.23_contrast1.1_equalization18.0.jpg</t>
+          <t>43_P_brightness12.0_gamma0.64_sharpness0.08.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.042819875870061</v>
+        <v>0.5171422095357825</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.7123665070544034</v>
+        <v>0.8337032949829697</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>21.58856484044473</v>
+        <v>28.56529691547799</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_contrast1.0_sharpness0.71_equalization22.0.jpg</t>
+          <t>44_7_gamma0.52_sharpness0.83_brightness29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.150436989970727</v>
+        <v>0.9834884753116757</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8983828034448923</v>
+        <v>22.91897885887083</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>21.24562790662998</v>
+        <v>0.6238230669464092</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_contrast1.2_sharpness0.9_equalization21.0.jpg</t>
+          <t>45_T_contrast0.98_brightness23.0_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.013123114901966</v>
+        <v>0.9454672011176628</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9461674942398178</v>
+        <v>16.46127578894215</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>24.24226221927164</v>
+        <v>0.3996247265938005</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_8_contrast1.0_sharpness0.95_brightness24.0.jpg</t>
+          <t>46_3_gamma0.95_brightness16.0_sharpness0.4.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9990373887122395</v>
+        <v>7.796428075399119</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.03481894671080876</v>
+        <v>1.157348580303712</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>21.96467091805095</v>
+        <v>1.051733510342695</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_0_contrast1.0_sharpness0.035_equalization22.0.jpg</t>
+          <t>47_3_brightness7.8_contrast1.2_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.2785180492287325</v>
+        <v>1.050542016465178</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.04801480880638</v>
+        <v>7.934203358649365</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>12.72169799512582</v>
+        <v>0.06526055962852562</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_2_sharpness0.28_contrast1.0_equalization13.0.jpg</t>
+          <t>48_I_gamma1.1_brightness7.9_sharpness0.065.jpg</t>
         </is>
       </c>
     </row>
